--- a/TestData/OrangeTestData.xlsx
+++ b/TestData/OrangeTestData.xlsx
@@ -110,22 +110,22 @@
     <t>001</t>
   </si>
   <si>
-    <t>D:\Java\Eclipse\Testing\OrangeHRM\Images\Pikachu.png</t>
-  </si>
-  <si>
-    <t>D:\Java\Eclipse\Testing\OrangeHRM\Images\Pidgeotto.png</t>
-  </si>
-  <si>
-    <t>D:\Java\Eclipse\Testing\OrangeHRM\Images\Butterfree.png</t>
-  </si>
-  <si>
-    <t>D:\Java\Eclipse\Testing\OrangeHRM\Images\Charmander.png</t>
-  </si>
-  <si>
-    <t>D:\Java\Eclipse\Testing\OrangeHRM\Images\Squirtle.png</t>
-  </si>
-  <si>
-    <t>D:\Java\Eclipse\Testing\OrangeHRM\Images\Bulbasaur.png</t>
+    <t>\Images\Pikachu.png</t>
+  </si>
+  <si>
+    <t>\Images\Pidgeotto.png</t>
+  </si>
+  <si>
+    <t>\Images\Butterfree.png</t>
+  </si>
+  <si>
+    <t>\Images\Charmander.png</t>
+  </si>
+  <si>
+    <t>\Images\Squirtle.png</t>
+  </si>
+  <si>
+    <t>\Images\Bulbasaur.png</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
